--- a/auxilliary/TheradMesData.xlsx
+++ b/auxilliary/TheradMesData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\gost-thread\auxilliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +70,6 @@
   </si>
   <si>
     <t>Св. 45 до 90</t>
-  </si>
-  <si>
-    <t>От 1 до 1,4</t>
   </si>
   <si>
     <t>Св. 1,4 до 2,8</t>
@@ -132,6 +128,9 @@
   </si>
   <si>
     <t>Св. 355 до 600</t>
+  </si>
+  <si>
+    <t>От+M8:V59 1 до 1,4</t>
   </si>
 </sst>
 </file>
@@ -523,6 +522,87 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,88 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,99 +1001,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:V15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:22" ht="22.5">
       <c r="H3" s="7"/>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="32"/>
     </row>
     <row r="4" spans="3:22" ht="22.5">
       <c r="H4" s="7"/>
-      <c r="M4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="38"/>
+      <c r="M4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="35"/>
     </row>
     <row r="5" spans="3:22">
       <c r="H5" s="7"/>
-      <c r="M5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="30"/>
+      <c r="M5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="3:22">
       <c r="H6" s="7"/>
-      <c r="M6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41"/>
+      <c r="M6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
     </row>
     <row r="7" spans="3:22" ht="15.75" thickBot="1">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="O7" s="32">
+      <c r="O7" s="18">
         <v>3</v>
       </c>
-      <c r="P7" s="32">
+      <c r="P7" s="18">
         <v>4</v>
       </c>
-      <c r="Q7" s="32">
-        <v>5</v>
-      </c>
-      <c r="R7" s="32">
+      <c r="Q7" s="18">
+        <v>5</v>
+      </c>
+      <c r="R7" s="18">
         <v>6</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="18">
         <v>7</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="18">
         <v>8</v>
       </c>
-      <c r="U7" s="32">
+      <c r="U7" s="18">
         <v>9</v>
       </c>
-      <c r="V7" s="32">
+      <c r="V7" s="18">
         <v>10</v>
       </c>
     </row>
@@ -1102,39 +1104,39 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="M8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="17">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="M8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9">
         <v>0.2</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="9">
         <v>24</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="9">
         <v>30</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="9">
         <v>38</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="9">
         <v>48</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="9">
         <v>-60</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="9">
         <v>-75</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="17" t="s">
+      <c r="U8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1142,36 +1144,36 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="H9" s="7"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="18">
+      <c r="M9" s="22"/>
+      <c r="N9" s="10">
         <v>0.25</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="10">
         <v>26</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="10">
         <v>34</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="10">
         <v>42</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="10">
         <v>53</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="10">
         <v>-67</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="10">
         <v>-85</v>
       </c>
-      <c r="U9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="U9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1187,81 +1189,81 @@
         <v>8</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="19">
+      <c r="M10" s="23"/>
+      <c r="N10" s="11">
         <v>0.3</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="11">
         <v>28</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="11">
         <v>36</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="11">
         <v>45</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="11">
         <v>56</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="11">
         <v>-71</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="11">
         <v>-90</v>
       </c>
-      <c r="U10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="17" t="s">
+      <c r="U10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:22">
-      <c r="C11" s="15"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="H11" s="7"/>
-      <c r="M11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="M11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="12">
         <v>0.2</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="12">
         <v>25</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="12">
         <v>32</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="12">
         <v>40</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="12">
         <v>50</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="12">
         <v>-63</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="12">
         <v>-80</v>
       </c>
-      <c r="U11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V11" s="17" t="s">
+      <c r="U11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:22" ht="15.75" thickBot="1">
-      <c r="C12" s="16"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
@@ -1277,32 +1279,32 @@
       <c r="L12" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="21">
+      <c r="M12" s="28"/>
+      <c r="N12" s="13">
         <v>0.25</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="13">
         <v>28</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="13">
         <v>36</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="13">
         <v>45</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="13">
         <v>56</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="13">
         <v>-71</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="13">
         <v>-90</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="17" t="s">
+      <c r="U12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1334,32 +1336,32 @@
       <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="21">
+      <c r="M13" s="28"/>
+      <c r="N13" s="13">
         <v>0.35</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="13">
         <v>32</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="13">
         <v>40</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="13">
         <v>50</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="13">
         <v>63</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="13">
         <v>80</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="13">
         <v>-100</v>
       </c>
-      <c r="U13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="17" t="s">
+      <c r="U13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1391,32 +1393,32 @@
       <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="21">
+      <c r="M14" s="28"/>
+      <c r="N14" s="13">
         <v>0.4</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="13">
         <v>34</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="13">
         <v>42</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="13">
         <v>53</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="13">
         <v>67</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="13">
         <v>85</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="13">
         <v>-106</v>
       </c>
-      <c r="U14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="17" t="s">
+      <c r="U14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1448,32 +1450,32 @@
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="22">
+      <c r="M15" s="29"/>
+      <c r="N15" s="14">
         <v>0.45</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="14">
         <v>36</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="14">
         <v>45</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="14">
         <v>56</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="14">
         <v>71</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="14">
         <v>90</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="14">
         <v>-112</v>
       </c>
-      <c r="U15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="17" t="s">
+      <c r="U15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1505,34 +1507,34 @@
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="17">
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
         <v>0.25</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16">
         <v>28</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16">
         <v>36</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16">
         <v>45</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16">
         <v>56</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16">
         <v>-71</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V16" s="17" t="s">
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1564,32 +1566,31 @@
       <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="18">
+      <c r="N17">
         <v>0.35</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17">
         <v>34</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17">
         <v>42</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17">
         <v>53</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17">
         <v>67</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17">
         <v>85</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17">
         <v>-106</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="17" t="s">
+      <c r="U17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1621,32 +1622,31 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="18">
+      <c r="N18">
         <v>0.5</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18">
         <v>38</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P18">
         <v>48</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q18">
         <v>60</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18">
         <v>75</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18">
         <v>95</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18">
         <v>-118</v>
       </c>
-      <c r="U18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="17" t="s">
+      <c r="U18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1678,32 +1678,31 @@
       <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="18">
+      <c r="N19">
         <v>0.6</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19">
         <v>42</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19">
         <v>53</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19">
         <v>67</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19">
         <v>85</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19">
         <v>106</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19">
         <v>-132</v>
       </c>
-      <c r="U19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="17" t="s">
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1735,32 +1734,31 @@
       <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="18">
+      <c r="N20">
         <v>0.7</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20">
         <v>45</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20">
         <v>56</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20">
         <v>71</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20">
         <v>90</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20">
         <v>112</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20">
         <v>-140</v>
       </c>
-      <c r="U20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="17" t="s">
+      <c r="U20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1792,32 +1790,31 @@
       <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="18">
+      <c r="N21">
         <v>0.75</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21">
         <v>45</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21">
         <v>56</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21">
         <v>71</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21">
         <v>90</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21">
         <v>112</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21">
         <v>-140</v>
       </c>
-      <c r="U21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="17" t="s">
+      <c r="U21" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1849,32 +1846,31 @@
       <c r="L22" s="7">
         <v>0</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="19">
+      <c r="N22">
         <v>0.8</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22">
         <v>48</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22">
         <v>60</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22">
         <v>75</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22">
         <v>95</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22">
         <v>118</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22">
         <v>150</v>
       </c>
-      <c r="U22" s="19">
+      <c r="U22">
         <v>190</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22">
         <v>236</v>
       </c>
     </row>
@@ -1906,34 +1902,34 @@
       <c r="L23" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="20">
+      <c r="M23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="12">
         <v>0.25</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="12">
         <v>32</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="12">
         <v>40</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="12">
         <v>50</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="12">
         <v>63</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="12">
         <v>-80</v>
       </c>
-      <c r="T23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="20" t="s">
+      <c r="T23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1965,32 +1961,32 @@
       <c r="L24" s="7">
         <v>0</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="21">
+      <c r="M24" s="28"/>
+      <c r="N24" s="13">
         <v>0.35</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="13">
         <v>36</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="13">
         <v>45</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="13">
         <v>56</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="13">
         <v>71</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="13">
         <v>90</v>
       </c>
-      <c r="T24" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="20" t="s">
+      <c r="T24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2022,32 +2018,32 @@
       <c r="L25" s="7">
         <v>0</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="21">
+      <c r="M25" s="28"/>
+      <c r="N25" s="13">
         <v>0.5</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="13">
         <v>42</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="13">
         <v>53</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="13">
         <v>67</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="13">
         <v>85</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25" s="13">
         <v>106</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25" s="13">
         <v>-132</v>
       </c>
-      <c r="U25" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" s="20" t="s">
+      <c r="U25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V25" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2079,32 +2075,32 @@
       <c r="L26" s="7">
         <v>0</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="21">
+      <c r="M26" s="28"/>
+      <c r="N26" s="13">
         <v>0.75</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="13">
         <v>50</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="13">
         <v>63</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="13">
         <v>80</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="13">
         <v>100</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="13">
         <v>125</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="13">
         <v>-160</v>
       </c>
-      <c r="U26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V26" s="20" t="s">
+      <c r="U26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2136,32 +2132,32 @@
       <c r="L27" s="7">
         <v>0</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="21">
+      <c r="M27" s="28"/>
+      <c r="N27" s="13">
         <v>1</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="13">
         <v>56</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="13">
         <v>71</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="13">
         <v>90</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="13">
         <v>112</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="13">
         <v>140</v>
       </c>
-      <c r="T27" s="21">
+      <c r="T27" s="13">
         <v>180</v>
       </c>
-      <c r="U27" s="21">
+      <c r="U27" s="13">
         <v>224</v>
       </c>
-      <c r="V27" s="21">
+      <c r="V27" s="13">
         <v>280</v>
       </c>
     </row>
@@ -2193,32 +2189,32 @@
       <c r="L28" s="7">
         <v>0</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="21">
+      <c r="M28" s="28"/>
+      <c r="N28" s="13">
         <v>1.25</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="13">
         <v>60</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="13">
         <v>75</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="13">
         <v>95</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="13">
         <v>118</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="13">
         <v>150</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="13">
         <v>190</v>
       </c>
-      <c r="U28" s="21">
+      <c r="U28" s="13">
         <v>236</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="13">
         <v>300</v>
       </c>
     </row>
@@ -2250,32 +2246,32 @@
       <c r="L29" s="7">
         <v>0</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="22">
+      <c r="M29" s="29"/>
+      <c r="N29" s="14">
         <v>1.5</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="14">
         <v>67</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="14">
         <v>85</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="14">
         <v>106</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="14">
         <v>132</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="14">
         <v>170</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="14">
         <v>212</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="14">
         <v>265</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="14">
         <v>335</v>
       </c>
     </row>
@@ -2307,34 +2303,34 @@
       <c r="L30" s="7">
         <v>0</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="9">
         <v>0.35</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="9">
         <v>38</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="9">
         <v>48</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="9">
         <v>60</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="9">
         <v>75</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="9">
         <v>95</v>
       </c>
-      <c r="T30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="U30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V30" s="17" t="s">
+      <c r="T30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2366,32 +2362,32 @@
       <c r="L31" s="7">
         <v>0</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="18">
+      <c r="M31" s="22"/>
+      <c r="N31" s="10">
         <v>0.5</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="10">
         <v>45</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="10">
         <v>56</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="10">
         <v>71</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="10">
         <v>90</v>
       </c>
-      <c r="S31" s="18">
+      <c r="S31" s="10">
         <v>112</v>
       </c>
-      <c r="T31" s="18">
+      <c r="T31" s="10">
         <v>-140</v>
       </c>
-      <c r="U31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V31" s="17" t="s">
+      <c r="U31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2423,32 +2419,32 @@
       <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="18">
+      <c r="M32" s="22"/>
+      <c r="N32" s="10">
         <v>0.75</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="10">
         <v>53</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="10">
         <v>67</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="10">
         <v>85</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="10">
         <v>106</v>
       </c>
-      <c r="S32" s="18">
+      <c r="S32" s="10">
         <v>132</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="10">
         <v>-170</v>
       </c>
-      <c r="U32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="17" t="s">
+      <c r="U32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2480,32 +2476,32 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="18">
+      <c r="M33" s="22"/>
+      <c r="N33" s="10">
         <v>1</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="10">
         <v>60</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="10">
         <v>75</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="10">
         <v>95</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="10">
         <v>118</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="10">
         <v>150</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="10">
         <v>190</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="10">
         <v>236</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="10">
         <v>300</v>
       </c>
     </row>
@@ -2537,32 +2533,32 @@
       <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="18">
+      <c r="M34" s="22"/>
+      <c r="N34" s="10">
         <v>1.25</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="10">
         <v>67</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="10">
         <v>85</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="10">
         <v>106</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="10">
         <v>132</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S34" s="10">
         <v>170</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="10">
         <v>212</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="10">
         <v>265</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="10">
         <v>335</v>
       </c>
     </row>
@@ -2594,32 +2590,32 @@
       <c r="L35" s="7">
         <v>0</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="18">
+      <c r="M35" s="22"/>
+      <c r="N35" s="10">
         <v>1.5</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="10">
         <v>71</v>
       </c>
-      <c r="P35" s="18">
+      <c r="P35" s="10">
         <v>90</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="10">
         <v>112</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="10">
         <v>140</v>
       </c>
-      <c r="S35" s="18">
+      <c r="S35" s="10">
         <v>180</v>
       </c>
-      <c r="T35" s="18">
+      <c r="T35" s="10">
         <v>224</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="10">
         <v>280</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="10">
         <v>355</v>
       </c>
     </row>
@@ -2651,32 +2647,32 @@
       <c r="L36" s="7">
         <v>0</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="18">
+      <c r="M36" s="22"/>
+      <c r="N36" s="10">
         <v>1.75</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="10">
         <v>75</v>
       </c>
-      <c r="P36" s="18">
+      <c r="P36" s="10">
         <v>95</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="10">
         <v>118</v>
       </c>
-      <c r="R36" s="18">
+      <c r="R36" s="10">
         <v>150</v>
       </c>
-      <c r="S36" s="18">
+      <c r="S36" s="10">
         <v>190</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="10">
         <v>236</v>
       </c>
-      <c r="U36" s="18">
+      <c r="U36" s="10">
         <v>300</v>
       </c>
-      <c r="V36" s="18">
+      <c r="V36" s="10">
         <v>375</v>
       </c>
     </row>
@@ -2708,972 +2704,972 @@
       <c r="L37" s="7">
         <v>0</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="18">
+      <c r="M37" s="22"/>
+      <c r="N37" s="10">
         <v>2</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="10">
         <v>80</v>
       </c>
-      <c r="P37" s="18">
+      <c r="P37" s="10">
         <v>100</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="10">
         <v>125</v>
       </c>
-      <c r="R37" s="18">
+      <c r="R37" s="10">
         <v>160</v>
       </c>
-      <c r="S37" s="18">
+      <c r="S37" s="10">
         <v>200</v>
       </c>
-      <c r="T37" s="18">
+      <c r="T37" s="10">
         <v>250</v>
       </c>
-      <c r="U37" s="18">
+      <c r="U37" s="10">
         <v>315</v>
       </c>
-      <c r="V37" s="18">
+      <c r="V37" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="38" spans="3:22">
       <c r="H38" s="7"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="19">
+      <c r="M38" s="23"/>
+      <c r="N38" s="11">
         <v>2.5</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="11">
         <v>85</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="11">
         <v>106</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="Q38" s="11">
         <v>132</v>
       </c>
-      <c r="R38" s="19">
+      <c r="R38" s="11">
         <v>170</v>
       </c>
-      <c r="S38" s="19">
+      <c r="S38" s="11">
         <v>212</v>
       </c>
-      <c r="T38" s="19">
+      <c r="T38" s="11">
         <v>265</v>
       </c>
-      <c r="U38" s="19">
+      <c r="U38" s="11">
         <v>335</v>
       </c>
-      <c r="V38" s="19">
+      <c r="V38" s="11">
         <v>425</v>
       </c>
     </row>
     <row r="39" spans="3:22">
       <c r="H39" s="7"/>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="12">
         <v>0.5</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="12">
         <v>48</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="12">
         <v>60</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="12">
         <v>75</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="12">
         <v>95</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="12">
         <v>118</v>
       </c>
-      <c r="T39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V39" s="20" t="s">
+      <c r="T39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:22">
       <c r="H40" s="7"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="21">
+      <c r="M40" s="28"/>
+      <c r="N40" s="13">
         <v>0.75</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="13">
         <v>56</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="13">
         <v>71</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="13">
         <v>90</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="13">
         <v>112</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40" s="13">
         <v>140</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40" s="13">
         <v>-180</v>
       </c>
-      <c r="U40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V40" s="20" t="s">
+      <c r="U40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:22">
       <c r="H41" s="7"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="21">
+      <c r="M41" s="28"/>
+      <c r="N41" s="13">
         <v>1</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="13">
         <v>63</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="13">
         <v>80</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="13">
         <v>100</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="13">
         <v>125</v>
       </c>
-      <c r="S41" s="21">
+      <c r="S41" s="13">
         <v>160</v>
       </c>
-      <c r="T41" s="21">
+      <c r="T41" s="13">
         <v>200</v>
       </c>
-      <c r="U41" s="21">
+      <c r="U41" s="13">
         <v>250</v>
       </c>
-      <c r="V41" s="21">
+      <c r="V41" s="13">
         <v>315</v>
       </c>
     </row>
     <row r="42" spans="3:22">
       <c r="H42" s="7"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="22">
+      <c r="M42" s="29"/>
+      <c r="N42" s="14">
         <v>1.5</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42" s="14">
         <v>75</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42" s="14">
         <v>95</v>
       </c>
-      <c r="Q42" s="22">
+      <c r="Q42" s="14">
         <v>118</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="14">
         <v>150</v>
       </c>
-      <c r="S42" s="22">
+      <c r="S42" s="14">
         <v>190</v>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="14">
         <v>236</v>
       </c>
-      <c r="U42" s="22">
+      <c r="U42" s="14">
         <v>300</v>
       </c>
-      <c r="V42" s="22">
+      <c r="V42" s="14">
         <v>375</v>
       </c>
     </row>
     <row r="43" spans="3:22">
       <c r="H43" s="7"/>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="12">
         <v>0.5</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="12">
         <v>50</v>
       </c>
-      <c r="P43" s="20">
+      <c r="P43" s="12">
         <v>63</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="12">
         <v>80</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="12">
         <v>100</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="12">
         <v>125</v>
       </c>
-      <c r="T43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="20" t="s">
+      <c r="T43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="3:22">
       <c r="H44" s="7"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="21">
+      <c r="M44" s="28"/>
+      <c r="N44" s="13">
         <v>0.75</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="13">
         <v>60</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="13">
         <v>75</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Q44" s="13">
         <v>95</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="13">
         <v>118</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44" s="13">
         <v>150</v>
       </c>
-      <c r="T44" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="20" t="s">
+      <c r="T44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="3:22">
       <c r="H45" s="7"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="21">
+      <c r="M45" s="28"/>
+      <c r="N45" s="13">
         <v>1</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="13">
         <v>71</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="13">
         <v>90</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="13">
         <v>112</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="13">
         <v>140</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45" s="13">
         <v>180</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45" s="13">
         <v>224</v>
       </c>
-      <c r="U45" s="21">
+      <c r="U45" s="13">
         <v>280</v>
       </c>
-      <c r="V45" s="21">
+      <c r="V45" s="13">
         <v>355</v>
       </c>
     </row>
     <row r="46" spans="3:22">
       <c r="H46" s="7"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="21">
+      <c r="M46" s="28"/>
+      <c r="N46" s="13">
         <v>1.5</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="13">
         <v>80</v>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="13">
         <v>100</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q46" s="13">
         <v>125</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="13">
         <v>160</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46" s="13">
         <v>200</v>
       </c>
-      <c r="T46" s="21">
+      <c r="T46" s="13">
         <v>250</v>
       </c>
-      <c r="U46" s="21">
+      <c r="U46" s="13">
         <v>315</v>
       </c>
-      <c r="V46" s="21">
+      <c r="V46" s="13">
         <v>400</v>
       </c>
     </row>
     <row r="47" spans="3:22">
       <c r="H47" s="7"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="21">
+      <c r="M47" s="28"/>
+      <c r="N47" s="13">
         <v>2</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="13">
         <v>90</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="13">
         <v>112</v>
       </c>
-      <c r="Q47" s="21">
+      <c r="Q47" s="13">
         <v>140</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="13">
         <v>180</v>
       </c>
-      <c r="S47" s="21">
+      <c r="S47" s="13">
         <v>224</v>
       </c>
-      <c r="T47" s="21">
+      <c r="T47" s="13">
         <v>280</v>
       </c>
-      <c r="U47" s="21">
+      <c r="U47" s="13">
         <v>355</v>
       </c>
-      <c r="V47" s="21">
+      <c r="V47" s="13">
         <v>450</v>
       </c>
     </row>
     <row r="48" spans="3:22">
       <c r="H48" s="7"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="21">
+      <c r="M48" s="28"/>
+      <c r="N48" s="13">
         <v>3</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="13">
         <v>106</v>
       </c>
-      <c r="P48" s="21">
+      <c r="P48" s="13">
         <v>132</v>
       </c>
-      <c r="Q48" s="21">
+      <c r="Q48" s="13">
         <v>170</v>
       </c>
-      <c r="R48" s="21">
+      <c r="R48" s="13">
         <v>212</v>
       </c>
-      <c r="S48" s="21">
+      <c r="S48" s="13">
         <v>265</v>
       </c>
-      <c r="T48" s="21">
+      <c r="T48" s="13">
         <v>335</v>
       </c>
-      <c r="U48" s="21">
+      <c r="U48" s="13">
         <v>425</v>
       </c>
-      <c r="V48" s="21">
+      <c r="V48" s="13">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="8:22">
       <c r="H49" s="7"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="21">
+      <c r="M49" s="28"/>
+      <c r="N49" s="13">
         <v>4</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="13">
         <v>118</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P49" s="13">
         <v>150</v>
       </c>
-      <c r="Q49" s="21">
+      <c r="Q49" s="13">
         <v>190</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="13">
         <v>236</v>
       </c>
-      <c r="S49" s="21">
+      <c r="S49" s="13">
         <v>300</v>
       </c>
-      <c r="T49" s="21">
+      <c r="T49" s="13">
         <v>375</v>
       </c>
-      <c r="U49" s="21">
+      <c r="U49" s="13">
         <v>475</v>
       </c>
-      <c r="V49" s="21">
+      <c r="V49" s="13">
         <v>600</v>
       </c>
     </row>
     <row r="50" spans="8:22">
       <c r="H50" s="7"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="21">
-        <v>5</v>
-      </c>
-      <c r="O50" s="21">
+      <c r="M50" s="28"/>
+      <c r="N50" s="13">
+        <v>5</v>
+      </c>
+      <c r="O50" s="13">
         <v>125</v>
       </c>
-      <c r="P50" s="21">
+      <c r="P50" s="13">
         <v>160</v>
       </c>
-      <c r="Q50" s="21">
+      <c r="Q50" s="13">
         <v>200</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="13">
         <v>250</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S50" s="13">
         <v>315</v>
       </c>
-      <c r="T50" s="21">
+      <c r="T50" s="13">
         <v>400</v>
       </c>
-      <c r="U50" s="21">
+      <c r="U50" s="13">
         <v>500</v>
       </c>
-      <c r="V50" s="21">
+      <c r="V50" s="13">
         <v>630</v>
       </c>
     </row>
     <row r="51" spans="8:22">
       <c r="H51" s="7"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="21">
+      <c r="M51" s="28"/>
+      <c r="N51" s="13">
         <v>5.5</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="13">
         <v>132</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="13">
         <v>170</v>
       </c>
-      <c r="Q51" s="21">
+      <c r="Q51" s="13">
         <v>212</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R51" s="13">
         <v>265</v>
       </c>
-      <c r="S51" s="21">
+      <c r="S51" s="13">
         <v>335</v>
       </c>
-      <c r="T51" s="21">
+      <c r="T51" s="13">
         <v>425</v>
       </c>
-      <c r="U51" s="21">
+      <c r="U51" s="13">
         <v>530</v>
       </c>
-      <c r="V51" s="21">
+      <c r="V51" s="13">
         <v>670</v>
       </c>
     </row>
     <row r="52" spans="8:22">
       <c r="H52" s="7"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="22">
+      <c r="M52" s="29"/>
+      <c r="N52" s="14">
         <v>6</v>
       </c>
-      <c r="O52" s="22">
+      <c r="O52" s="14">
         <v>140</v>
       </c>
-      <c r="P52" s="22">
+      <c r="P52" s="14">
         <v>180</v>
       </c>
-      <c r="Q52" s="22">
+      <c r="Q52" s="14">
         <v>224</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="14">
         <v>280</v>
       </c>
-      <c r="S52" s="22">
+      <c r="S52" s="14">
         <v>355</v>
       </c>
-      <c r="T52" s="22">
+      <c r="T52" s="14">
         <v>450</v>
       </c>
-      <c r="U52" s="22">
+      <c r="U52" s="14">
         <v>560</v>
       </c>
-      <c r="V52" s="22">
+      <c r="V52" s="14">
         <v>710</v>
       </c>
     </row>
     <row r="53" spans="8:22">
       <c r="H53" s="7"/>
-      <c r="M53" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="17">
+      <c r="M53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="9">
         <v>0.75</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="9">
         <v>63</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="9">
         <v>80</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="9">
         <v>100</v>
       </c>
-      <c r="R53" s="17">
+      <c r="R53" s="9">
         <v>125</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="9">
         <v>160</v>
       </c>
-      <c r="T53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V53" s="20" t="s">
+      <c r="T53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V53" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="8:22">
       <c r="H54" s="7"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="18">
+      <c r="M54" s="22"/>
+      <c r="N54" s="10">
         <v>1</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="10">
         <v>75</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54" s="10">
         <v>95</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="Q54" s="10">
         <v>118</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="10">
         <v>150</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S54" s="10">
         <v>190</v>
       </c>
-      <c r="T54" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="20" t="s">
+      <c r="T54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="8:22">
       <c r="H55" s="7"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="18">
+      <c r="M55" s="22"/>
+      <c r="N55" s="10">
         <v>1.5</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55" s="10">
         <v>85</v>
       </c>
-      <c r="P55" s="18">
+      <c r="P55" s="10">
         <v>106</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="10">
         <v>132</v>
       </c>
-      <c r="R55" s="18">
+      <c r="R55" s="10">
         <v>170</v>
       </c>
-      <c r="S55" s="18">
+      <c r="S55" s="10">
         <v>212</v>
       </c>
-      <c r="T55" s="18">
+      <c r="T55" s="10">
         <v>265</v>
       </c>
-      <c r="U55" s="18">
+      <c r="U55" s="10">
         <v>335</v>
       </c>
-      <c r="V55" s="18">
+      <c r="V55" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="56" spans="8:22">
       <c r="H56" s="7"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="18">
+      <c r="M56" s="22"/>
+      <c r="N56" s="10">
         <v>2</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="10">
         <v>95</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56" s="10">
         <v>118</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="10">
         <v>150</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="10">
         <v>190</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S56" s="10">
         <v>236</v>
       </c>
-      <c r="T56" s="18">
+      <c r="T56" s="10">
         <v>300</v>
       </c>
-      <c r="U56" s="18">
+      <c r="U56" s="10">
         <v>375</v>
       </c>
-      <c r="V56" s="18">
+      <c r="V56" s="10">
         <v>475</v>
       </c>
     </row>
     <row r="57" spans="8:22">
       <c r="H57" s="7"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="18">
+      <c r="M57" s="22"/>
+      <c r="N57" s="10">
         <v>3</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57" s="10">
         <v>112</v>
       </c>
-      <c r="P57" s="18">
+      <c r="P57" s="10">
         <v>140</v>
       </c>
-      <c r="Q57" s="18">
+      <c r="Q57" s="10">
         <v>180</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="10">
         <v>224</v>
       </c>
-      <c r="S57" s="18">
+      <c r="S57" s="10">
         <v>280</v>
       </c>
-      <c r="T57" s="18">
+      <c r="T57" s="10">
         <v>355</v>
       </c>
-      <c r="U57" s="18">
+      <c r="U57" s="10">
         <v>450</v>
       </c>
-      <c r="V57" s="18">
+      <c r="V57" s="10">
         <v>560</v>
       </c>
     </row>
     <row r="58" spans="8:22">
       <c r="H58" s="7"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="18">
+      <c r="M58" s="22"/>
+      <c r="N58" s="10">
         <v>4</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="10">
         <v>125</v>
       </c>
-      <c r="P58" s="18">
+      <c r="P58" s="10">
         <v>160</v>
       </c>
-      <c r="Q58" s="18">
+      <c r="Q58" s="10">
         <v>200</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="10">
         <v>250</v>
       </c>
-      <c r="S58" s="18">
+      <c r="S58" s="10">
         <v>315</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="10">
         <v>400</v>
       </c>
-      <c r="U58" s="18">
+      <c r="U58" s="10">
         <v>500</v>
       </c>
-      <c r="V58" s="18">
+      <c r="V58" s="10">
         <v>630</v>
       </c>
     </row>
     <row r="59" spans="8:22">
       <c r="H59" s="7"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="19">
+      <c r="M59" s="23"/>
+      <c r="N59" s="11">
         <v>6</v>
       </c>
-      <c r="O59" s="19">
+      <c r="O59" s="11">
         <v>150</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="11">
         <v>190</v>
       </c>
-      <c r="Q59" s="19">
+      <c r="Q59" s="11">
         <v>236</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="11">
         <v>300</v>
       </c>
-      <c r="S59" s="19">
+      <c r="S59" s="11">
         <v>375</v>
       </c>
-      <c r="T59" s="19">
+      <c r="T59" s="11">
         <v>475</v>
       </c>
-      <c r="U59" s="19">
+      <c r="U59" s="11">
         <v>600</v>
       </c>
-      <c r="V59" s="19">
+      <c r="V59" s="11">
         <v>750</v>
       </c>
     </row>
     <row r="60" spans="8:22">
       <c r="H60" s="7"/>
-      <c r="M60" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="20">
+      <c r="M60" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="12">
         <v>1.5</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="12">
         <v>90</v>
       </c>
-      <c r="P60" s="20">
+      <c r="P60" s="12">
         <v>112</v>
       </c>
-      <c r="Q60" s="20">
+      <c r="Q60" s="12">
         <v>140</v>
       </c>
-      <c r="R60" s="20">
+      <c r="R60" s="12">
         <v>180</v>
       </c>
-      <c r="S60" s="20">
+      <c r="S60" s="12">
         <v>224</v>
       </c>
-      <c r="T60" s="20">
+      <c r="T60" s="12">
         <v>280</v>
       </c>
-      <c r="U60" s="20">
+      <c r="U60" s="12">
         <v>355</v>
       </c>
-      <c r="V60" s="20" t="s">
+      <c r="V60" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="8:22">
       <c r="H61" s="7"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="21">
+      <c r="M61" s="28"/>
+      <c r="N61" s="13">
         <v>2</v>
       </c>
-      <c r="O61" s="21">
+      <c r="O61" s="13">
         <v>106</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="13">
         <v>132</v>
       </c>
-      <c r="Q61" s="21">
+      <c r="Q61" s="13">
         <v>170</v>
       </c>
-      <c r="R61" s="21">
+      <c r="R61" s="13">
         <v>212</v>
       </c>
-      <c r="S61" s="21">
+      <c r="S61" s="13">
         <v>265</v>
       </c>
-      <c r="T61" s="21">
+      <c r="T61" s="13">
         <v>335</v>
       </c>
-      <c r="U61" s="21">
+      <c r="U61" s="13">
         <v>425</v>
       </c>
-      <c r="V61" s="21">
+      <c r="V61" s="13">
         <v>530</v>
       </c>
     </row>
     <row r="62" spans="8:22">
       <c r="H62" s="7"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="21">
+      <c r="M62" s="28"/>
+      <c r="N62" s="13">
         <v>3</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="13">
         <v>125</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="13">
         <v>160</v>
       </c>
-      <c r="Q62" s="21">
+      <c r="Q62" s="13">
         <v>200</v>
       </c>
-      <c r="R62" s="21">
+      <c r="R62" s="13">
         <v>250</v>
       </c>
-      <c r="S62" s="21">
+      <c r="S62" s="13">
         <v>315</v>
       </c>
-      <c r="T62" s="21">
+      <c r="T62" s="13">
         <v>400</v>
       </c>
-      <c r="U62" s="21">
+      <c r="U62" s="13">
         <v>500</v>
       </c>
-      <c r="V62" s="21">
+      <c r="V62" s="13">
         <v>630</v>
       </c>
     </row>
     <row r="63" spans="8:22">
       <c r="H63" s="7"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="21">
+      <c r="M63" s="28"/>
+      <c r="N63" s="13">
         <v>4</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O63" s="13">
         <v>140</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="13">
         <v>180</v>
       </c>
-      <c r="Q63" s="21">
+      <c r="Q63" s="13">
         <v>224</v>
       </c>
-      <c r="R63" s="21">
+      <c r="R63" s="13">
         <v>280</v>
       </c>
-      <c r="S63" s="21">
+      <c r="S63" s="13">
         <v>355</v>
       </c>
-      <c r="T63" s="21">
+      <c r="T63" s="13">
         <v>450</v>
       </c>
-      <c r="U63" s="21">
+      <c r="U63" s="13">
         <v>560</v>
       </c>
-      <c r="V63" s="21">
+      <c r="V63" s="13">
         <v>710</v>
       </c>
     </row>
     <row r="64" spans="8:22">
       <c r="H64" s="7"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="22">
+      <c r="M64" s="29"/>
+      <c r="N64" s="14">
         <v>6</v>
       </c>
-      <c r="O64" s="22">
+      <c r="O64" s="14">
         <v>160</v>
       </c>
-      <c r="P64" s="22">
+      <c r="P64" s="14">
         <v>200</v>
       </c>
-      <c r="Q64" s="22">
+      <c r="Q64" s="14">
         <v>250</v>
       </c>
-      <c r="R64" s="22">
+      <c r="R64" s="14">
         <v>315</v>
       </c>
-      <c r="S64" s="22">
+      <c r="S64" s="14">
         <v>400</v>
       </c>
-      <c r="T64" s="22">
+      <c r="T64" s="14">
         <v>500</v>
       </c>
-      <c r="U64" s="22">
+      <c r="U64" s="14">
         <v>630</v>
       </c>
-      <c r="V64" s="22">
+      <c r="V64" s="14">
         <v>800</v>
       </c>
     </row>
     <row r="65" spans="8:22">
       <c r="H65" s="7"/>
-      <c r="M65" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="17">
+      <c r="M65" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="9">
         <v>2</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="9">
         <v>112</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="9">
         <v>140</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="9">
         <v>180</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="9">
         <v>224</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="9">
         <v>280</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="9">
         <v>355</v>
       </c>
-      <c r="U65" s="17">
+      <c r="U65" s="9">
         <v>450</v>
       </c>
-      <c r="V65" s="17" t="s">
+      <c r="V65" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="8:22">
       <c r="H66" s="7"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="18">
+      <c r="M66" s="22"/>
+      <c r="N66" s="10">
         <v>4</v>
       </c>
-      <c r="O66" s="18">
+      <c r="O66" s="10">
         <v>150</v>
       </c>
-      <c r="P66" s="18">
+      <c r="P66" s="10">
         <v>190</v>
       </c>
-      <c r="Q66" s="18">
+      <c r="Q66" s="10">
         <v>236</v>
       </c>
-      <c r="R66" s="18">
+      <c r="R66" s="10">
         <v>300</v>
       </c>
-      <c r="S66" s="18">
+      <c r="S66" s="10">
         <v>375</v>
       </c>
-      <c r="T66" s="18">
+      <c r="T66" s="10">
         <v>475</v>
       </c>
-      <c r="U66" s="18">
+      <c r="U66" s="10">
         <v>600</v>
       </c>
-      <c r="V66" s="18">
+      <c r="V66" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="67" spans="8:22">
       <c r="H67" s="7"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="19">
+      <c r="M67" s="23"/>
+      <c r="N67" s="11">
         <v>6</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O67" s="11">
         <v>170</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P67" s="11">
         <v>212</v>
       </c>
-      <c r="Q67" s="19">
+      <c r="Q67" s="11">
         <v>265</v>
       </c>
-      <c r="R67" s="19">
+      <c r="R67" s="11">
         <v>335</v>
       </c>
-      <c r="S67" s="19">
+      <c r="S67" s="11">
         <v>425</v>
       </c>
-      <c r="T67" s="19">
+      <c r="T67" s="11">
         <v>530</v>
       </c>
-      <c r="U67" s="19">
+      <c r="U67" s="11">
         <v>670</v>
       </c>
-      <c r="V67" s="19">
+      <c r="V67" s="11">
         <v>850</v>
       </c>
     </row>
@@ -3855,16 +3851,7 @@
       <c r="H126" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="M43:M52"/>
-    <mergeCell ref="M53:M59"/>
-    <mergeCell ref="M60:M64"/>
-    <mergeCell ref="M16:M22"/>
-    <mergeCell ref="M23:M29"/>
-    <mergeCell ref="M30:M38"/>
-    <mergeCell ref="M39:M42"/>
+  <mergeCells count="15">
     <mergeCell ref="O3:V4"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="C11:C12"/>
@@ -3872,6 +3859,14 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="M11:M15"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="M43:M52"/>
+    <mergeCell ref="M53:M59"/>
+    <mergeCell ref="M60:M64"/>
+    <mergeCell ref="M23:M29"/>
+    <mergeCell ref="M30:M38"/>
+    <mergeCell ref="M39:M42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3890,177 +3885,177 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="3:12">
-      <c r="C7" s="42">
+      <c r="C7" s="19">
         <v>0.35</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="19">
         <v>32</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="19">
         <v>40</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="19">
         <v>50</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="19">
         <v>63</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="19">
         <v>80</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="20">
         <v>-100</v>
       </c>
-      <c r="J7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="42">
+      <c r="C8" s="19">
         <v>0.4</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="19">
         <v>34</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="19">
         <v>42</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="19">
         <v>53</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="19">
         <v>67</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="19">
         <v>85</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="19">
         <v>-106</v>
       </c>
-      <c r="J8" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="42" t="s">
+      <c r="J8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="42">
+      <c r="C9" s="19">
         <v>0.45</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="19">
         <v>36</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="19">
         <v>45</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="19">
         <v>56</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="19">
         <v>71</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="19">
         <v>90</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="19">
         <v>-112</v>
       </c>
-      <c r="J9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="42" t="s">
+      <c r="J9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="42">
+      <c r="C10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19">
         <v>0.25</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="19">
         <v>28</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="19">
         <v>36</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="19">
         <v>45</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="19">
         <v>56</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="19">
         <v>-71</v>
       </c>
-      <c r="J10" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="42" t="s">
+      <c r="J10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="43"/>
-      <c r="D11" s="42">
+      <c r="C11" s="44"/>
+      <c r="D11" s="19">
         <v>0.35</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="19">
         <v>34</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="19">
         <v>42</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="19">
         <v>53</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="19">
         <v>67</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="19">
         <v>85</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="19">
         <v>-106</v>
       </c>
-      <c r="K11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="42" t="s">
+      <c r="K11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="43"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="43"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="43"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="43"/>
+      <c r="C16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
